--- a/tables/DE/DE_rand_1_bin_F_09_Cr_09_pop_50/DE_table2_F9_dim10.xlsx
+++ b/tables/DE/DE_rand_1_bin_F_09_Cr_09_pop_50/DE_table2_F9_dim10.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="53">
-  <si>
-    <t>Gen</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="52">
+  <si>
+    <t>MaxFES</t>
   </si>
   <si>
     <t>Run  0</t>
@@ -167,9 +167,6 @@
   </si>
   <si>
     <t>Run 49</t>
-  </si>
-  <si>
-    <t>Run 50</t>
   </si>
   <si>
     <t>Mean</t>
@@ -526,7 +523,7 @@
     <s:outlinePr summaryBelow="1" summaryRight="1"/>
     <s:pageSetUpPr/>
   </s:sheetPr>
-  <dimension ref="A1:BA14"/>
+  <dimension ref="A1:AZ14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -534,7 +531,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:53">
+    <row r="1" spans="1:52">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -691,11 +688,8 @@
       <c r="AZ1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" s="1" t="s">
-        <v>52</v>
-      </c>
     </row>
-    <row r="2" spans="1:53">
+    <row r="2" spans="1:52">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
@@ -850,15 +844,12 @@
         <v>122.18267897</v>
       </c>
       <c r="AZ2" t="n">
-        <v>115.39944942</v>
-      </c>
-      <c r="BA2" t="n">
-        <v>134.45930486</v>
+        <v>134.84050197</v>
       </c>
     </row>
-    <row r="3" spans="1:53">
+    <row r="3" spans="1:52">
       <c r="A3" s="1" t="n">
-        <v>2</v>
+        <v>0.001</v>
       </c>
       <c r="B3" t="n">
         <v>138.82052204</v>
@@ -1011,15 +1002,12 @@
         <v>122.18267897</v>
       </c>
       <c r="AZ3" t="n">
-        <v>88.09167486</v>
-      </c>
-      <c r="BA3" t="n">
-        <v>123.09915739</v>
+        <v>123.79930704</v>
       </c>
     </row>
-    <row r="4" spans="1:53">
+    <row r="4" spans="1:52">
       <c r="A4" s="1" t="n">
-        <v>20</v>
+        <v>0.01</v>
       </c>
       <c r="B4" t="n">
         <v>85.70441273</v>
@@ -1172,15 +1160,12 @@
         <v>77.59586734</v>
       </c>
       <c r="AZ4" t="n">
-        <v>66.12341583</v>
-      </c>
-      <c r="BA4" t="n">
-        <v>80.35742677</v>
+        <v>80.64210699</v>
       </c>
     </row>
-    <row r="5" spans="1:53">
+    <row r="5" spans="1:52">
       <c r="A5" s="1" t="n">
-        <v>200</v>
+        <v>0.1</v>
       </c>
       <c r="B5" t="n">
         <v>27.33084708</v>
@@ -1333,15 +1318,12 @@
         <v>21.66226251</v>
       </c>
       <c r="AZ5" t="n">
-        <v>26.31382613</v>
-      </c>
-      <c r="BA5" t="n">
-        <v>26.9848113</v>
+        <v>26.99823101</v>
       </c>
     </row>
-    <row r="6" spans="1:53">
+    <row r="6" spans="1:52">
       <c r="A6" s="1" t="n">
-        <v>400</v>
+        <v>0.2</v>
       </c>
       <c r="B6" t="n">
         <v>11.70765648</v>
@@ -1494,15 +1476,12 @@
         <v>18.39502024</v>
       </c>
       <c r="AZ6" t="n">
-        <v>18.07549872</v>
-      </c>
-      <c r="BA6" t="n">
-        <v>18.12884905</v>
+        <v>18.12991606</v>
       </c>
     </row>
-    <row r="7" spans="1:53">
+    <row r="7" spans="1:52">
       <c r="A7" s="1" t="n">
-        <v>599</v>
+        <v>0.3</v>
       </c>
       <c r="B7" t="n">
         <v>11.66158296</v>
@@ -1655,15 +1634,12 @@
         <v>15.40584583</v>
       </c>
       <c r="AZ7" t="n">
-        <v>10.70449878</v>
-      </c>
-      <c r="BA7" t="n">
-        <v>13.90049839</v>
+        <v>13.96441838</v>
       </c>
     </row>
-    <row r="8" spans="1:53">
+    <row r="8" spans="1:52">
       <c r="A8" s="1" t="n">
-        <v>799</v>
+        <v>0.4</v>
       </c>
       <c r="B8" t="n">
         <v>11.66158296</v>
@@ -1816,15 +1792,12 @@
         <v>10.95737107</v>
       </c>
       <c r="AZ8" t="n">
-        <v>9.68725826</v>
-      </c>
-      <c r="BA8" t="n">
-        <v>11.05481795</v>
+        <v>11.08216914</v>
       </c>
     </row>
-    <row r="9" spans="1:53">
+    <row r="9" spans="1:52">
       <c r="A9" s="1" t="n">
-        <v>999</v>
+        <v>0.5</v>
       </c>
       <c r="B9" t="n">
         <v>10.42698716</v>
@@ -1977,15 +1950,12 @@
         <v>10.95737107</v>
       </c>
       <c r="AZ9" t="n">
-        <v>8.331613539999999</v>
-      </c>
-      <c r="BA9" t="n">
-        <v>9.949486569999999</v>
+        <v>9.98184403</v>
       </c>
     </row>
-    <row r="10" spans="1:53">
+    <row r="10" spans="1:52">
       <c r="A10" s="1" t="n">
-        <v>1199</v>
+        <v>0.6</v>
       </c>
       <c r="B10" t="n">
         <v>10.2539323</v>
@@ -2138,15 +2108,12 @@
         <v>10.73411927</v>
       </c>
       <c r="AZ10" t="n">
-        <v>8.331613539999999</v>
-      </c>
-      <c r="BA10" t="n">
-        <v>8.62195518</v>
+        <v>8.62776201</v>
       </c>
     </row>
-    <row r="11" spans="1:53">
+    <row r="11" spans="1:52">
       <c r="A11" s="1" t="n">
-        <v>1399</v>
+        <v>0.7</v>
       </c>
       <c r="B11" t="n">
         <v>7.7610587</v>
@@ -2299,15 +2266,12 @@
         <v>8.3465454</v>
       </c>
       <c r="AZ11" t="n">
-        <v>8.1995691</v>
-      </c>
-      <c r="BA11" t="n">
-        <v>7.50112721</v>
+        <v>7.48715838</v>
       </c>
     </row>
-    <row r="12" spans="1:53">
+    <row r="12" spans="1:52">
       <c r="A12" s="1" t="n">
-        <v>1598</v>
+        <v>0.8</v>
       </c>
       <c r="B12" t="n">
         <v>7.7610587</v>
@@ -2460,15 +2424,12 @@
         <v>8.3465454</v>
       </c>
       <c r="AZ12" t="n">
-        <v>7.80712806</v>
-      </c>
-      <c r="BA12" t="n">
-        <v>6.75295051</v>
+        <v>6.73186696</v>
       </c>
     </row>
-    <row r="13" spans="1:53">
+    <row r="13" spans="1:52">
       <c r="A13" s="1" t="n">
-        <v>1798</v>
+        <v>0.9</v>
       </c>
       <c r="B13" t="n">
         <v>7.46969097</v>
@@ -2621,15 +2582,12 @@
         <v>7.52818319</v>
       </c>
       <c r="AZ13" t="n">
-        <v>7.44072568</v>
-      </c>
-      <c r="BA13" t="n">
-        <v>6.25735667</v>
+        <v>6.23368929</v>
       </c>
     </row>
-    <row r="14" spans="1:53">
+    <row r="14" spans="1:52">
       <c r="A14" s="1" t="n">
-        <v>1998</v>
+        <v>1</v>
       </c>
       <c r="B14" t="n">
         <v>6.08413934</v>
@@ -2782,10 +2740,7 @@
         <v>6.9744826</v>
       </c>
       <c r="AZ14" t="n">
-        <v>7.44072568</v>
-      </c>
-      <c r="BA14" t="n">
-        <v>5.78172155</v>
+        <v>5.74854146</v>
       </c>
     </row>
   </sheetData>
